--- a/策划案/三国/体验记录.xlsx
+++ b/策划案/三国/体验记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="我们的游戏" sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="348">
   <si>
     <t>打两个关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2151,6 +2151,10 @@
   <si>
     <t>开启家园</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2288,7 +2292,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2336,6 +2340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Grid_Center" xfId="2"/>
@@ -4130,10 +4135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:Q128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5049,6 +5054,11 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
+    </row>
+    <row r="128" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q128" s="17" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
